--- a/data/pca/factorExposure/factorExposure_2015-05-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-05-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01929188137468887</v>
+        <v>0.01107121335588897</v>
       </c>
       <c r="C2">
-        <v>0.02130517981513546</v>
+        <v>-0.05364802841335039</v>
       </c>
       <c r="D2">
-        <v>0.1058950028274761</v>
+        <v>0.1265794067242907</v>
       </c>
       <c r="E2">
-        <v>-0.0100504381132555</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02570520856957017</v>
+      </c>
+      <c r="F2">
+        <v>0.03101962306088793</v>
+      </c>
+      <c r="G2">
+        <v>-0.1169526631595501</v>
+      </c>
+      <c r="H2">
+        <v>0.09178565864582343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04336237136695709</v>
+        <v>0.01943675282331339</v>
       </c>
       <c r="C4">
-        <v>0.0723767333550971</v>
+        <v>-0.1063744196727184</v>
       </c>
       <c r="D4">
-        <v>0.1277501998969037</v>
+        <v>0.1319652030357895</v>
       </c>
       <c r="E4">
-        <v>-0.0833160184304674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01338665462050486</v>
+      </c>
+      <c r="F4">
+        <v>0.08901632350115232</v>
+      </c>
+      <c r="G4">
+        <v>-0.002147177296786515</v>
+      </c>
+      <c r="H4">
+        <v>0.04543010031956626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.0206860479656601</v>
+        <v>0.02683626734547458</v>
       </c>
       <c r="C6">
-        <v>0.01175841385633786</v>
+        <v>-0.03508719152684561</v>
       </c>
       <c r="D6">
-        <v>0.1404161042537111</v>
+        <v>0.1226880203984807</v>
       </c>
       <c r="E6">
-        <v>-0.03635888111893594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.06341265013835301</v>
+      </c>
+      <c r="F6">
+        <v>0.04346754632038735</v>
+      </c>
+      <c r="G6">
+        <v>0.01018215426563323</v>
+      </c>
+      <c r="H6">
+        <v>0.03993839657064473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.002286341255236028</v>
+        <v>0.008826568382804838</v>
       </c>
       <c r="C7">
-        <v>0.02340270993100576</v>
+        <v>-0.03826874968841424</v>
       </c>
       <c r="D7">
-        <v>0.1132130544061905</v>
+        <v>0.09741476929361817</v>
       </c>
       <c r="E7">
-        <v>-0.00363170780108969</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05610074094322608</v>
+      </c>
+      <c r="F7">
+        <v>0.008565955450070412</v>
+      </c>
+      <c r="G7">
+        <v>0.01791367809237994</v>
+      </c>
+      <c r="H7">
+        <v>0.078806998673928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.00479505185415847</v>
+        <v>-0.00846385296109233</v>
       </c>
       <c r="C8">
-        <v>0.02586252771572154</v>
+        <v>-0.03567634612366821</v>
       </c>
       <c r="D8">
-        <v>0.07927438913639885</v>
+        <v>0.07592512729904391</v>
       </c>
       <c r="E8">
-        <v>-0.02256006453301306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.0402347387285599</v>
+      </c>
+      <c r="F8">
+        <v>0.0490077177113806</v>
+      </c>
+      <c r="G8">
+        <v>-0.06319863927884535</v>
+      </c>
+      <c r="H8">
+        <v>0.009951698911495971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03508397201367255</v>
+        <v>0.01346999407835513</v>
       </c>
       <c r="C9">
-        <v>0.06189544039761644</v>
+        <v>-0.08850213101980459</v>
       </c>
       <c r="D9">
-        <v>0.130362133075839</v>
+        <v>0.1142472057628158</v>
       </c>
       <c r="E9">
-        <v>-0.06772537009545646</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01480227071964094</v>
+      </c>
+      <c r="F9">
+        <v>0.05878156074033623</v>
+      </c>
+      <c r="G9">
+        <v>0.01871676286106419</v>
+      </c>
+      <c r="H9">
+        <v>0.05685405777241482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.1754596769013232</v>
+        <v>0.2410386159684802</v>
       </c>
       <c r="C10">
-        <v>-0.1669678561306571</v>
+        <v>0.09329061899374988</v>
       </c>
       <c r="D10">
-        <v>0.001312263509369423</v>
+        <v>-0.002917690326159667</v>
       </c>
       <c r="E10">
-        <v>-0.04484072221937836</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01117678086997486</v>
+      </c>
+      <c r="F10">
+        <v>0.04542609276293152</v>
+      </c>
+      <c r="G10">
+        <v>-0.004001050853853752</v>
+      </c>
+      <c r="H10">
+        <v>-0.0362493510480138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.01756406939220706</v>
+        <v>0.01032051389415985</v>
       </c>
       <c r="C11">
-        <v>0.04124961333264851</v>
+        <v>-0.05578777990130758</v>
       </c>
       <c r="D11">
-        <v>0.04651334946411375</v>
+        <v>0.04394834538003878</v>
       </c>
       <c r="E11">
-        <v>0.01568522345165602</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02082286378408727</v>
+      </c>
+      <c r="F11">
+        <v>-0.01331820269833921</v>
+      </c>
+      <c r="G11">
+        <v>0.01365923575835339</v>
+      </c>
+      <c r="H11">
+        <v>0.04387745012424065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.01806257071384109</v>
+        <v>0.01040742328718121</v>
       </c>
       <c r="C12">
-        <v>0.0405837423071824</v>
+        <v>-0.04953495379709464</v>
       </c>
       <c r="D12">
-        <v>0.06062113715305797</v>
+        <v>0.04747450200762379</v>
       </c>
       <c r="E12">
-        <v>0.005187570135829309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01617565799350419</v>
+      </c>
+      <c r="F12">
+        <v>-0.0165566306312963</v>
+      </c>
+      <c r="G12">
+        <v>0.03292417353046628</v>
+      </c>
+      <c r="H12">
+        <v>0.06125243807201125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.001140532258932494</v>
+        <v>-0.003019678873177774</v>
       </c>
       <c r="C13">
-        <v>0.02199181626915892</v>
+        <v>-0.04755870360177247</v>
       </c>
       <c r="D13">
-        <v>0.1459855685169825</v>
+        <v>0.1514968526910649</v>
       </c>
       <c r="E13">
-        <v>-0.03775203131664109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.0434706023888815</v>
+      </c>
+      <c r="F13">
+        <v>0.0353673515422683</v>
+      </c>
+      <c r="G13">
+        <v>-0.01130235566960882</v>
+      </c>
+      <c r="H13">
+        <v>0.07886712634606331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.00597969791699743</v>
+        <v>0.001651051093864357</v>
       </c>
       <c r="C14">
-        <v>0.01581167949685321</v>
+        <v>-0.03076755888375692</v>
       </c>
       <c r="D14">
-        <v>0.09719859089100379</v>
+        <v>0.1020091974403763</v>
       </c>
       <c r="E14">
-        <v>-0.01156792357126325</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.05309961781751481</v>
+      </c>
+      <c r="F14">
+        <v>0.0344287862849186</v>
+      </c>
+      <c r="G14">
+        <v>-0.0006671331473297721</v>
+      </c>
+      <c r="H14">
+        <v>0.1316955905336813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002861807736679028</v>
+        <v>-0.001429818651291419</v>
       </c>
       <c r="C15">
-        <v>0.01066212921455967</v>
+        <v>-0.02617385039561925</v>
       </c>
       <c r="D15">
-        <v>0.03232477741762275</v>
+        <v>0.05989396640228118</v>
       </c>
       <c r="E15">
-        <v>0.003663534207332648</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.01210103491811412</v>
+      </c>
+      <c r="F15">
+        <v>0.006711541691719133</v>
+      </c>
+      <c r="G15">
+        <v>-0.01494153035252193</v>
+      </c>
+      <c r="H15">
+        <v>0.03565267984708914</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.01731184678561374</v>
+        <v>0.01025344519477695</v>
       </c>
       <c r="C16">
-        <v>0.03677436303791112</v>
+        <v>-0.0492717922402994</v>
       </c>
       <c r="D16">
-        <v>0.05276424701453589</v>
+        <v>0.04423260024076388</v>
       </c>
       <c r="E16">
-        <v>0.007326437835653691</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02260865420926192</v>
+      </c>
+      <c r="F16">
+        <v>-0.008604473463110494</v>
+      </c>
+      <c r="G16">
+        <v>0.02331457278957675</v>
+      </c>
+      <c r="H16">
+        <v>0.04176214729716513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.003492744354414782</v>
+        <v>-4.482097579640502e-05</v>
       </c>
       <c r="C19">
-        <v>0.01870955166356043</v>
+        <v>-0.0176644933141971</v>
       </c>
       <c r="D19">
-        <v>0.1035128872885037</v>
+        <v>0.06368855702261295</v>
       </c>
       <c r="E19">
-        <v>-0.04527163756184528</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.0103072363457585</v>
+      </c>
+      <c r="F19">
+        <v>0.01530919378716229</v>
+      </c>
+      <c r="G19">
+        <v>-0.009658730981057469</v>
+      </c>
+      <c r="H19">
+        <v>0.05825565914702327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001485550199574765</v>
+        <v>0.005310215746057837</v>
       </c>
       <c r="C20">
-        <v>0.02460151403243132</v>
+        <v>-0.04134249862468947</v>
       </c>
       <c r="D20">
-        <v>0.08613623356400063</v>
+        <v>0.09211700599344666</v>
       </c>
       <c r="E20">
-        <v>-0.03258816451776696</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02551769211306039</v>
+      </c>
+      <c r="F20">
+        <v>0.02699771228804717</v>
+      </c>
+      <c r="G20">
+        <v>0.01488165734967976</v>
+      </c>
+      <c r="H20">
+        <v>0.05439110855682633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.005685863527184137</v>
+        <v>0.005548170703843338</v>
       </c>
       <c r="C21">
-        <v>0.02725344146127674</v>
+        <v>-0.04493606849278215</v>
       </c>
       <c r="D21">
-        <v>0.1627930493644054</v>
+        <v>0.1307390495088618</v>
       </c>
       <c r="E21">
-        <v>-0.07857306012622282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03335407246734243</v>
+      </c>
+      <c r="F21">
+        <v>0.09576082962975173</v>
+      </c>
+      <c r="G21">
+        <v>-0.01059250979725925</v>
+      </c>
+      <c r="H21">
+        <v>0.196417532210489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.002253808820266267</v>
+        <v>-0.01371366915995065</v>
       </c>
       <c r="C22">
-        <v>0.06299231021986451</v>
+        <v>-0.0884166638392444</v>
       </c>
       <c r="D22">
-        <v>0.2499707631726701</v>
+        <v>0.2532960202077856</v>
       </c>
       <c r="E22">
-        <v>0.01764086383738973</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.06399470329109136</v>
+      </c>
+      <c r="F22">
+        <v>0.003644035899205705</v>
+      </c>
+      <c r="G22">
+        <v>-0.4111838391660291</v>
+      </c>
+      <c r="H22">
+        <v>-0.3817703699452739</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001972892346845668</v>
+        <v>-0.01046017713374508</v>
       </c>
       <c r="C23">
-        <v>0.06348871004722174</v>
+        <v>-0.09000644171417735</v>
       </c>
       <c r="D23">
-        <v>0.2493875607111956</v>
+        <v>0.2559827096718704</v>
       </c>
       <c r="E23">
-        <v>0.01748215940318614</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.05923775351537104</v>
+      </c>
+      <c r="F23">
+        <v>0.006955756552819561</v>
+      </c>
+      <c r="G23">
+        <v>-0.3986926775729018</v>
+      </c>
+      <c r="H23">
+        <v>-0.3671113055633187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02215835328815444</v>
+        <v>0.009541310756778897</v>
       </c>
       <c r="C24">
-        <v>0.05643613096195266</v>
+        <v>-0.0661246276700391</v>
       </c>
       <c r="D24">
-        <v>0.06346050817288666</v>
+        <v>0.04901719226204628</v>
       </c>
       <c r="E24">
-        <v>0.002161846561209059</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02984748118940404</v>
+      </c>
+      <c r="F24">
+        <v>-0.003864976801312532</v>
+      </c>
+      <c r="G24">
+        <v>0.01342855629267142</v>
+      </c>
+      <c r="H24">
+        <v>0.06927996682118781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02387956626065766</v>
+        <v>0.01422059954140187</v>
       </c>
       <c r="C25">
-        <v>0.04825177081721103</v>
+        <v>-0.06070719745638107</v>
       </c>
       <c r="D25">
-        <v>0.06009602625963945</v>
+        <v>0.05008631123553606</v>
       </c>
       <c r="E25">
-        <v>-0.002078612877226902</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01508940904031327</v>
+      </c>
+      <c r="F25">
+        <v>-0.00625313007857436</v>
+      </c>
+      <c r="G25">
+        <v>0.01615046291551721</v>
+      </c>
+      <c r="H25">
+        <v>0.03482952495340723</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.006588513924231614</v>
+        <v>0.01478246980411711</v>
       </c>
       <c r="C26">
-        <v>0.01489517549941488</v>
+        <v>-0.02724439726827999</v>
       </c>
       <c r="D26">
-        <v>0.085894563087765</v>
+        <v>0.06903153017959218</v>
       </c>
       <c r="E26">
-        <v>-0.01927015067407169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.0449611856792591</v>
+      </c>
+      <c r="F26">
+        <v>0.04190964711696166</v>
+      </c>
+      <c r="G26">
+        <v>0.01157218255471799</v>
+      </c>
+      <c r="H26">
+        <v>0.09642038451365578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.2603735118268359</v>
+        <v>0.3192681043452463</v>
       </c>
       <c r="C28">
-        <v>-0.1956845351898049</v>
+        <v>0.0936975837094618</v>
       </c>
       <c r="D28">
-        <v>0.0193409427969405</v>
+        <v>-0.01375734343470996</v>
       </c>
       <c r="E28">
-        <v>-0.05916089081363305</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05036534418117444</v>
+      </c>
+      <c r="F28">
+        <v>0.04848833058635715</v>
+      </c>
+      <c r="G28">
+        <v>-0.05440970041210336</v>
+      </c>
+      <c r="H28">
+        <v>-0.009836484282193535</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.001999741572637298</v>
+        <v>0.001033094253167817</v>
       </c>
       <c r="C29">
-        <v>0.02079747568577399</v>
+        <v>-0.03644948150812651</v>
       </c>
       <c r="D29">
-        <v>0.09679177673424037</v>
+        <v>0.1033789801029307</v>
       </c>
       <c r="E29">
-        <v>-0.01673857508010279</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.05989275058355806</v>
+      </c>
+      <c r="F29">
+        <v>0.0378757151347951</v>
+      </c>
+      <c r="G29">
+        <v>0.01269796470055828</v>
+      </c>
+      <c r="H29">
+        <v>0.1366300092708381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.02110091013229061</v>
+        <v>0.01313313270823474</v>
       </c>
       <c r="C30">
-        <v>0.05835554266304205</v>
+        <v>-0.08711258967754373</v>
       </c>
       <c r="D30">
-        <v>0.1663482628602913</v>
+        <v>0.1477347326721582</v>
       </c>
       <c r="E30">
-        <v>-0.02607567806951392</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05730888947937452</v>
+      </c>
+      <c r="F30">
+        <v>0.02677635165491442</v>
+      </c>
+      <c r="G30">
+        <v>-0.02030955630502941</v>
+      </c>
+      <c r="H30">
+        <v>0.04698033682967489</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.03657279234249455</v>
+        <v>0.01024721002680975</v>
       </c>
       <c r="C31">
-        <v>0.08517386543030504</v>
+        <v>-0.09363299596472052</v>
       </c>
       <c r="D31">
-        <v>0.06890593758578599</v>
+        <v>0.03999016551280477</v>
       </c>
       <c r="E31">
-        <v>-0.01270274083309194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02018090867333607</v>
+      </c>
+      <c r="F31">
+        <v>0.01435234648760958</v>
+      </c>
+      <c r="G31">
+        <v>0.00279360482747973</v>
+      </c>
+      <c r="H31">
+        <v>0.04537574555164557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01655598433453522</v>
+        <v>0.009634502269735043</v>
       </c>
       <c r="C32">
-        <v>0.03281293865949398</v>
+        <v>-0.04899148260976238</v>
       </c>
       <c r="D32">
-        <v>0.09611685653541828</v>
+        <v>0.1080640949762354</v>
       </c>
       <c r="E32">
-        <v>-0.06753725412677647</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.003952220527851136</v>
+      </c>
+      <c r="F32">
+        <v>0.05187130827942681</v>
+      </c>
+      <c r="G32">
+        <v>-0.01054724436560857</v>
+      </c>
+      <c r="H32">
+        <v>0.05233439696966181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.008224879924357935</v>
+        <v>0.007000238504130507</v>
       </c>
       <c r="C33">
-        <v>0.0403552360104277</v>
+        <v>-0.05899524459850222</v>
       </c>
       <c r="D33">
-        <v>0.1410365082316752</v>
+        <v>0.1219262863756408</v>
       </c>
       <c r="E33">
-        <v>-0.0416492848060726</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02914487352913908</v>
+      </c>
+      <c r="F33">
+        <v>0.02674995561707441</v>
+      </c>
+      <c r="G33">
+        <v>0.006084739257595387</v>
+      </c>
+      <c r="H33">
+        <v>0.06151565149088256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02020521842854821</v>
+        <v>0.007437508355163841</v>
       </c>
       <c r="C34">
-        <v>0.05816065473807751</v>
+        <v>-0.06183917148610439</v>
       </c>
       <c r="D34">
-        <v>0.05215935201344273</v>
+        <v>0.02870341874068538</v>
       </c>
       <c r="E34">
-        <v>0.04542752655037991</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02954532886891606</v>
+      </c>
+      <c r="F34">
+        <v>-0.03912825445390946</v>
+      </c>
+      <c r="G34">
+        <v>0.01855286138627202</v>
+      </c>
+      <c r="H34">
+        <v>0.05304499346337759</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002703733590467152</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01074233477149483</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.03351283913616297</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.004888085129927894</v>
+      </c>
+      <c r="F35">
+        <v>0.01711548984438823</v>
+      </c>
+      <c r="G35">
+        <v>0.007154001417043361</v>
+      </c>
+      <c r="H35">
+        <v>0.05099418464724568</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.006569009580045251</v>
+        <v>0.01188663196821132</v>
       </c>
       <c r="C36">
-        <v>0.006078360817272349</v>
+        <v>-0.02177650179858312</v>
       </c>
       <c r="D36">
-        <v>0.08657484748755377</v>
+        <v>0.07621567070622631</v>
       </c>
       <c r="E36">
-        <v>-0.04479509566247981</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.02903895206576358</v>
+      </c>
+      <c r="F36">
+        <v>0.04881778735573946</v>
+      </c>
+      <c r="G36">
+        <v>0.002538355506058842</v>
+      </c>
+      <c r="H36">
+        <v>0.06355825961188538</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.00453465013821588</v>
+        <v>0.01366282744378006</v>
       </c>
       <c r="C38">
-        <v>0.006076770223344249</v>
+        <v>-0.02045444531709738</v>
       </c>
       <c r="D38">
-        <v>0.09284477503163723</v>
+        <v>0.08681611354440895</v>
       </c>
       <c r="E38">
-        <v>-0.01259995640762635</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.005555823938644123</v>
+      </c>
+      <c r="F38">
+        <v>0.003160475728638512</v>
+      </c>
+      <c r="G38">
+        <v>-0.02169425898710698</v>
+      </c>
+      <c r="H38">
+        <v>0.06481679194454062</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.01404034780244595</v>
+        <v>0.002513925570898354</v>
       </c>
       <c r="C39">
-        <v>0.0570166742798721</v>
+        <v>-0.07675772810323243</v>
       </c>
       <c r="D39">
-        <v>0.1130573967229845</v>
+        <v>0.09561934277699184</v>
       </c>
       <c r="E39">
-        <v>0.01287569243423113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.05503740672723834</v>
+      </c>
+      <c r="F39">
+        <v>-0.005623196680095936</v>
+      </c>
+      <c r="G39">
+        <v>0.02011000058563223</v>
+      </c>
+      <c r="H39">
+        <v>0.09403343505600896</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01530681128223482</v>
+        <v>0.01337993124298326</v>
       </c>
       <c r="C40">
-        <v>0.02367405788613338</v>
+        <v>-0.03783016684968545</v>
       </c>
       <c r="D40">
-        <v>0.1135005040290619</v>
+        <v>0.09297824901174583</v>
       </c>
       <c r="E40">
-        <v>0.008715142239465576</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.04216809458066895</v>
+      </c>
+      <c r="F40">
+        <v>-0.01303855204069751</v>
+      </c>
+      <c r="G40">
+        <v>-0.06079279398828173</v>
+      </c>
+      <c r="H40">
+        <v>0.1107746421933493</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.009160496593965577</v>
+        <v>0.01623678428211264</v>
       </c>
       <c r="C41">
-        <v>0.004001991478403844</v>
+        <v>-0.01858979839530609</v>
       </c>
       <c r="D41">
-        <v>0.04605053076720232</v>
+        <v>0.04872664207378383</v>
       </c>
       <c r="E41">
-        <v>-0.03263255073984848</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.006213964958781251</v>
+      </c>
+      <c r="F41">
+        <v>0.02484521254421104</v>
+      </c>
+      <c r="G41">
+        <v>-0.001398203107516808</v>
+      </c>
+      <c r="H41">
+        <v>0.04581478043009039</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.001798847830394876</v>
+        <v>0.009006240941930239</v>
       </c>
       <c r="C43">
-        <v>0.004742243719867619</v>
+        <v>-0.01574779490166112</v>
       </c>
       <c r="D43">
-        <v>0.05485031725467735</v>
+        <v>0.05264589171918739</v>
       </c>
       <c r="E43">
-        <v>-0.02171867913532815</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01010015786889053</v>
+      </c>
+      <c r="F43">
+        <v>0.01981161336448539</v>
+      </c>
+      <c r="G43">
+        <v>-0.002979523272221932</v>
+      </c>
+      <c r="H43">
+        <v>0.05462043676396563</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01522043801215065</v>
+        <v>0.01176431170364067</v>
       </c>
       <c r="C44">
-        <v>0.02419077865728456</v>
+        <v>-0.04786834716592747</v>
       </c>
       <c r="D44">
-        <v>0.1054939250509617</v>
+        <v>0.1094054858123215</v>
       </c>
       <c r="E44">
-        <v>-0.04954855110131236</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.03899955047840992</v>
+      </c>
+      <c r="F44">
+        <v>0.0370816028782175</v>
+      </c>
+      <c r="G44">
+        <v>-0.02639441194415433</v>
+      </c>
+      <c r="H44">
+        <v>0.05458028912218192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1864,97 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.004839372205303201</v>
+        <v>0.0002023996549586087</v>
       </c>
       <c r="C46">
-        <v>0.02850462945964227</v>
+        <v>-0.0406730920333187</v>
       </c>
       <c r="D46">
-        <v>0.09025163000816783</v>
+        <v>0.07489259765974636</v>
       </c>
       <c r="E46">
-        <v>-0.01801976299746837</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.04419202728146546</v>
+      </c>
+      <c r="F46">
+        <v>0.03209947467253147</v>
+      </c>
+      <c r="G46">
+        <v>-0.002049438763467815</v>
+      </c>
+      <c r="H46">
+        <v>0.1300128858267776</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07870301116707062</v>
+        <v>0.03512972894382353</v>
       </c>
       <c r="C47">
-        <v>0.1084756970706435</v>
+        <v>-0.1259588779151179</v>
       </c>
       <c r="D47">
-        <v>0.05929252271590917</v>
+        <v>0.02211056101368996</v>
       </c>
       <c r="E47">
-        <v>-0.03000910268823298</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.006731745985199028</v>
+      </c>
+      <c r="F47">
+        <v>-0.005333265022153698</v>
+      </c>
+      <c r="G47">
+        <v>0.04644460207617502</v>
+      </c>
+      <c r="H47">
+        <v>0.05151961266750833</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.00756217644620029</v>
+        <v>0.01360987048261027</v>
       </c>
       <c r="C48">
-        <v>0.01476977828290388</v>
+        <v>-0.03172125458609958</v>
       </c>
       <c r="D48">
-        <v>0.09185427714062659</v>
+        <v>0.08263202187831198</v>
       </c>
       <c r="E48">
-        <v>-0.05732469842521098</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.02311889429598938</v>
+      </c>
+      <c r="F48">
+        <v>0.0581581692458206</v>
+      </c>
+      <c r="G48">
+        <v>0.003133167042683572</v>
+      </c>
+      <c r="H48">
+        <v>0.1040304849996103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1968,71 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03404668193829754</v>
+        <v>0.01474413985387981</v>
       </c>
       <c r="C50">
-        <v>0.05925553060603228</v>
+        <v>-0.07501693387844149</v>
       </c>
       <c r="D50">
-        <v>0.06350675480098299</v>
+        <v>0.04815012193279901</v>
       </c>
       <c r="E50">
-        <v>-0.007747692191840043</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01317362599619521</v>
+      </c>
+      <c r="F50">
+        <v>0.008127875516799788</v>
+      </c>
+      <c r="G50">
+        <v>-0.00891962956156523</v>
+      </c>
+      <c r="H50">
+        <v>0.03389156293254106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.001550101830089331</v>
+        <v>-0.000492049410508904</v>
       </c>
       <c r="C51">
-        <v>0.005075804985059792</v>
+        <v>-0.01760905527404361</v>
       </c>
       <c r="D51">
-        <v>0.05402926959444538</v>
+        <v>0.05543981402319471</v>
       </c>
       <c r="E51">
-        <v>-0.002872619726463502</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03898585224250598</v>
+      </c>
+      <c r="F51">
+        <v>0.03912477624171227</v>
+      </c>
+      <c r="G51">
+        <v>-0.01894120571180192</v>
+      </c>
+      <c r="H51">
+        <v>0.05518296609358471</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1059818204726839</v>
+        <v>0.05478749852528095</v>
       </c>
       <c r="C53">
-        <v>0.1264879663573236</v>
+        <v>-0.1564873924567323</v>
       </c>
       <c r="D53">
-        <v>0.009553458425869346</v>
+        <v>-0.02165115515408915</v>
       </c>
       <c r="E53">
-        <v>-0.06105097759986498</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.0302350544053696</v>
+      </c>
+      <c r="F53">
+        <v>0.04985842645785606</v>
+      </c>
+      <c r="G53">
+        <v>0.0001465686984115678</v>
+      </c>
+      <c r="H53">
+        <v>0.006813674081072457</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01008936713045259</v>
+        <v>0.01004241443052029</v>
       </c>
       <c r="C54">
-        <v>0.0204686262378071</v>
+        <v>-0.03786401570865209</v>
       </c>
       <c r="D54">
-        <v>0.09267282095609002</v>
+        <v>0.07790910353179444</v>
       </c>
       <c r="E54">
-        <v>-0.005358954642844568</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01734292934932875</v>
+      </c>
+      <c r="F54">
+        <v>0.001265969036838097</v>
+      </c>
+      <c r="G54">
+        <v>-0.01254096335623368</v>
+      </c>
+      <c r="H54">
+        <v>0.08068951918702633</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09259450690116401</v>
+        <v>0.04166952844953684</v>
       </c>
       <c r="C55">
-        <v>0.1069767948712397</v>
+        <v>-0.1302564851581221</v>
       </c>
       <c r="D55">
-        <v>0.007009700952200433</v>
+        <v>-0.03089867420846234</v>
       </c>
       <c r="E55">
-        <v>-0.01070338165226927</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.004369923478740783</v>
+      </c>
+      <c r="F55">
+        <v>0.01422073670456368</v>
+      </c>
+      <c r="G55">
+        <v>-0.00423769278552629</v>
+      </c>
+      <c r="H55">
+        <v>0.01423159886010909</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1306408328493441</v>
+        <v>0.0565859617593123</v>
       </c>
       <c r="C56">
-        <v>0.1442536140540319</v>
+        <v>-0.1888544381882462</v>
       </c>
       <c r="D56">
-        <v>0.002087157724896419</v>
+        <v>-0.03094219635601802</v>
       </c>
       <c r="E56">
-        <v>-0.012551989896198</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03148916340615922</v>
+      </c>
+      <c r="F56">
+        <v>0.01683126861309789</v>
+      </c>
+      <c r="G56">
+        <v>-0.05235655920403149</v>
+      </c>
+      <c r="H56">
+        <v>0.01074460219335632</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.008725533834631722</v>
+        <v>0.006463361588125834</v>
       </c>
       <c r="C58">
-        <v>0.009901592736807697</v>
+        <v>-0.05396093983205257</v>
       </c>
       <c r="D58">
-        <v>0.2218149396411376</v>
+        <v>0.2748999747115555</v>
       </c>
       <c r="E58">
-        <v>-0.08083738010802739</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02012191702526684</v>
+      </c>
+      <c r="F58">
+        <v>0.104929923577651</v>
+      </c>
+      <c r="G58">
+        <v>-0.1392898496115471</v>
+      </c>
+      <c r="H58">
+        <v>-0.08617880226782902</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1832677616059357</v>
+        <v>0.2531561884205579</v>
       </c>
       <c r="C59">
-        <v>-0.1455374780738545</v>
+        <v>0.06274893838835026</v>
       </c>
       <c r="D59">
-        <v>0.04639883777099309</v>
+        <v>0.05726650956149138</v>
       </c>
       <c r="E59">
-        <v>-0.03610344513307532</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01951579050267961</v>
+      </c>
+      <c r="F59">
+        <v>0.02286046332981096</v>
+      </c>
+      <c r="G59">
+        <v>-0.01038214351726133</v>
+      </c>
+      <c r="H59">
+        <v>-0.002350054831084326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1828604182452606</v>
+        <v>0.149229636636394</v>
       </c>
       <c r="C60">
-        <v>0.106330462503431</v>
+        <v>-0.1741508517622663</v>
       </c>
       <c r="D60">
-        <v>0.2009855779585362</v>
+        <v>0.08149609494840773</v>
       </c>
       <c r="E60">
-        <v>0.164551114210508</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1620340200009299</v>
+      </c>
+      <c r="F60">
+        <v>-0.2243364979918967</v>
+      </c>
+      <c r="G60">
+        <v>0.2137370863110189</v>
+      </c>
+      <c r="H60">
+        <v>-0.2400435011311635</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02427620729600774</v>
+        <v>0.011035218785362</v>
       </c>
       <c r="C61">
-        <v>0.05334396073779266</v>
+        <v>-0.07482006870076346</v>
       </c>
       <c r="D61">
-        <v>0.09977416714458813</v>
+        <v>0.07885702418415294</v>
       </c>
       <c r="E61">
-        <v>0.003988271291121891</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03895939736292555</v>
+      </c>
+      <c r="F61">
+        <v>-0.01384746315299217</v>
+      </c>
+      <c r="G61">
+        <v>0.03665657137305772</v>
+      </c>
+      <c r="H61">
+        <v>0.08616525749966387</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.006006692272296972</v>
+        <v>0.008390408093186336</v>
       </c>
       <c r="C63">
-        <v>0.02458099889525586</v>
+        <v>-0.03666740773861463</v>
       </c>
       <c r="D63">
-        <v>0.0970546792577488</v>
+        <v>0.06897036382731539</v>
       </c>
       <c r="E63">
-        <v>-0.01506495661952114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.0601394469144484</v>
+      </c>
+      <c r="F63">
+        <v>0.0247345574096355</v>
+      </c>
+      <c r="G63">
+        <v>0.004310796109501787</v>
+      </c>
+      <c r="H63">
+        <v>0.06597287648416394</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.053768609499675</v>
+        <v>0.01666200070539452</v>
       </c>
       <c r="C64">
-        <v>0.08399299838871092</v>
+        <v>-0.1044858826653349</v>
       </c>
       <c r="D64">
-        <v>0.03394242726282687</v>
+        <v>0.01668775921058325</v>
       </c>
       <c r="E64">
-        <v>-0.01546030008710439</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02558934064359079</v>
+      </c>
+      <c r="F64">
+        <v>0.01741268548004612</v>
+      </c>
+      <c r="G64">
+        <v>0.05428136471741522</v>
+      </c>
+      <c r="H64">
+        <v>0.08082382017642196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02397319013912372</v>
+        <v>0.02074655456814482</v>
       </c>
       <c r="C65">
-        <v>0.01516730385746632</v>
+        <v>-0.04360193145989037</v>
       </c>
       <c r="D65">
-        <v>0.1166182471968123</v>
+        <v>0.1158332526288373</v>
       </c>
       <c r="E65">
-        <v>-0.00633502300238848</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04526097102158199</v>
+      </c>
+      <c r="F65">
+        <v>-0.007256356644246208</v>
+      </c>
+      <c r="G65">
+        <v>0.02952554084322068</v>
+      </c>
+      <c r="H65">
+        <v>0.01289635958947159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.01798704390675495</v>
+        <v>-0.000239512175707798</v>
       </c>
       <c r="C66">
-        <v>0.06476251602542889</v>
+        <v>-0.09498011079037404</v>
       </c>
       <c r="D66">
-        <v>0.1212786998792289</v>
+        <v>0.1206557084245422</v>
       </c>
       <c r="E66">
-        <v>0.0152248545499803</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.04336666254274156</v>
+      </c>
+      <c r="F66">
+        <v>-0.01130903637508822</v>
+      </c>
+      <c r="G66">
+        <v>-0.005516784071945373</v>
+      </c>
+      <c r="H66">
+        <v>0.06061313340214285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02299422499036872</v>
+        <v>0.02382286866464435</v>
       </c>
       <c r="C67">
-        <v>0.01964880436180881</v>
+        <v>-0.03243316732828223</v>
       </c>
       <c r="D67">
-        <v>0.04870656739435789</v>
+        <v>0.04053415979063641</v>
       </c>
       <c r="E67">
-        <v>0.01457826586925567</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01106882785348357</v>
+      </c>
+      <c r="F67">
+        <v>-0.02540465536385871</v>
+      </c>
+      <c r="G67">
+        <v>-0.004845888054915211</v>
+      </c>
+      <c r="H67">
+        <v>0.06719849684757068</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.206462029626123</v>
+        <v>0.2733213244257185</v>
       </c>
       <c r="C68">
-        <v>-0.154380565697932</v>
+        <v>0.06880663369731066</v>
       </c>
       <c r="D68">
-        <v>0.03056807106685233</v>
+        <v>0.02508977011549991</v>
       </c>
       <c r="E68">
-        <v>-0.006882056268935439</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.004159459107404551</v>
+      </c>
+      <c r="F68">
+        <v>0.02448814721640015</v>
+      </c>
+      <c r="G68">
+        <v>-0.07276942329808894</v>
+      </c>
+      <c r="H68">
+        <v>-0.04499778635254863</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05433234657009471</v>
+        <v>0.01915935534504706</v>
       </c>
       <c r="C69">
-        <v>0.1160444312800704</v>
+        <v>-0.1181390306686043</v>
       </c>
       <c r="D69">
-        <v>0.07822012206516561</v>
+        <v>0.02857198180760103</v>
       </c>
       <c r="E69">
-        <v>-0.01735798725692241</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.008503857504411573</v>
+      </c>
+      <c r="F69">
+        <v>-0.008696009827059268</v>
+      </c>
+      <c r="G69">
+        <v>0.02746501061869277</v>
+      </c>
+      <c r="H69">
+        <v>0.04331692134362975</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.2164979193145256</v>
+        <v>0.2747272963038044</v>
       </c>
       <c r="C71">
-        <v>-0.177112353729012</v>
+        <v>0.08154128944996054</v>
       </c>
       <c r="D71">
-        <v>0.01907776727172868</v>
+        <v>0.01625341721003419</v>
       </c>
       <c r="E71">
-        <v>-0.01254404634853015</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.0007784518279896325</v>
+      </c>
+      <c r="F71">
+        <v>0.02165352301100608</v>
+      </c>
+      <c r="G71">
+        <v>-0.04042097202748438</v>
+      </c>
+      <c r="H71">
+        <v>0.02148934138301886</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1025527965478609</v>
+        <v>0.05604185862637099</v>
       </c>
       <c r="C72">
-        <v>0.07927431264838372</v>
+        <v>-0.1263396520618033</v>
       </c>
       <c r="D72">
-        <v>0.1060213792305634</v>
+        <v>0.05541355331756671</v>
       </c>
       <c r="E72">
-        <v>0.04666628598846573</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.06852535172433742</v>
+      </c>
+      <c r="F72">
+        <v>-0.0291752958427856</v>
+      </c>
+      <c r="G72">
+        <v>0.04049357479546741</v>
+      </c>
+      <c r="H72">
+        <v>0.04612081739683908</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1722651194917661</v>
+        <v>0.1420461180880155</v>
       </c>
       <c r="C73">
-        <v>0.07191380981408982</v>
+        <v>-0.1491462416210446</v>
       </c>
       <c r="D73">
-        <v>0.2651650008196297</v>
+        <v>0.08922246445001052</v>
       </c>
       <c r="E73">
-        <v>0.247111021998131</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.2848638355098455</v>
+      </c>
+      <c r="F73">
+        <v>-0.3163222815474411</v>
+      </c>
+      <c r="G73">
+        <v>0.3953154260617254</v>
+      </c>
+      <c r="H73">
+        <v>-0.1889557023497437</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1050842612144428</v>
+        <v>0.0497442598469997</v>
       </c>
       <c r="C74">
-        <v>0.1169013917098747</v>
+        <v>-0.1449651797606319</v>
       </c>
       <c r="D74">
-        <v>-0.01786716027528195</v>
+        <v>-0.04229946567602549</v>
       </c>
       <c r="E74">
-        <v>-0.04031143857644006</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01199134216366122</v>
+      </c>
+      <c r="F74">
+        <v>0.0372258933566401</v>
+      </c>
+      <c r="G74">
+        <v>0.005517344962130839</v>
+      </c>
+      <c r="H74">
+        <v>-0.01025438038634812</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2300997522594985</v>
+        <v>0.1086394293453795</v>
       </c>
       <c r="C75">
-        <v>0.2040490722605484</v>
+        <v>-0.2675485093645337</v>
       </c>
       <c r="D75">
-        <v>-0.1060449141594898</v>
+        <v>-0.1382276180691702</v>
       </c>
       <c r="E75">
-        <v>0.02651416002983021</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.09167230048154415</v>
+      </c>
+      <c r="F75">
+        <v>-0.02616801201523815</v>
+      </c>
+      <c r="G75">
+        <v>-0.1005277611938877</v>
+      </c>
+      <c r="H75">
+        <v>0.02524025983055373</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1374124030507942</v>
+        <v>0.06180932676270657</v>
       </c>
       <c r="C76">
-        <v>0.1409733379645333</v>
+        <v>-0.1814975549888421</v>
       </c>
       <c r="D76">
-        <v>0.01434718246612167</v>
+        <v>-0.0393336498516671</v>
       </c>
       <c r="E76">
-        <v>-0.01340613440576866</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02309477089682465</v>
+      </c>
+      <c r="F76">
+        <v>0.005340394477625326</v>
+      </c>
+      <c r="G76">
+        <v>-0.03553636221013603</v>
+      </c>
+      <c r="H76">
+        <v>0.03801421430230728</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.02028939082806413</v>
+        <v>0.00167638224250883</v>
       </c>
       <c r="C77">
-        <v>0.06637582915056064</v>
+        <v>-0.1068939536758438</v>
       </c>
       <c r="D77">
-        <v>0.0004553024486430886</v>
+        <v>0.3227741547764384</v>
       </c>
       <c r="E77">
-        <v>-0.238471273597036</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.8406798643499307</v>
+      </c>
+      <c r="F77">
+        <v>-0.2218423418021751</v>
+      </c>
+      <c r="G77">
+        <v>0.1920736873594949</v>
+      </c>
+      <c r="H77">
+        <v>-0.1567951389256149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.02515938728088389</v>
+        <v>0.01643629472921142</v>
       </c>
       <c r="C78">
-        <v>0.06921730934205761</v>
+        <v>-0.09129373017723712</v>
       </c>
       <c r="D78">
-        <v>0.1516934331365753</v>
+        <v>0.1175213268441081</v>
       </c>
       <c r="E78">
-        <v>-0.0452598315603164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.06996468192619704</v>
+      </c>
+      <c r="F78">
+        <v>0.04237104612258902</v>
+      </c>
+      <c r="G78">
+        <v>-0.03284304712202614</v>
+      </c>
+      <c r="H78">
+        <v>0.02853653961983993</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.09390404713431205</v>
+        <v>0.03481066032594866</v>
       </c>
       <c r="C79">
-        <v>0.177327775717056</v>
+        <v>-0.1937868604677931</v>
       </c>
       <c r="D79">
-        <v>-0.11157055313528</v>
+        <v>-0.07167007521490878</v>
       </c>
       <c r="E79">
-        <v>-0.7943380088798232</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.05391278375690854</v>
+      </c>
+      <c r="F79">
+        <v>0.7785070345218659</v>
+      </c>
+      <c r="G79">
+        <v>0.3717769527132563</v>
+      </c>
+      <c r="H79">
+        <v>-0.3328489156684541</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.004283510027692693</v>
+        <v>0.005432919683889864</v>
       </c>
       <c r="C80">
-        <v>0.04569329141865296</v>
+        <v>-0.04655587709276234</v>
       </c>
       <c r="D80">
-        <v>0.05089521729105721</v>
+        <v>0.03980928012247859</v>
       </c>
       <c r="E80">
-        <v>0.008124603368931588</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04504260615452228</v>
+      </c>
+      <c r="F80">
+        <v>0.003106388444024322</v>
+      </c>
+      <c r="G80">
+        <v>-0.009524817038203688</v>
+      </c>
+      <c r="H80">
+        <v>0.0307462014351038</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1177953345648242</v>
+        <v>0.04340657904302225</v>
       </c>
       <c r="C81">
-        <v>0.1363651791359284</v>
+        <v>-0.1678673455981899</v>
       </c>
       <c r="D81">
-        <v>-0.06793942756707011</v>
+        <v>-0.07666697410028585</v>
       </c>
       <c r="E81">
-        <v>-0.06054125987656876</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04981170937921437</v>
+      </c>
+      <c r="F81">
+        <v>0.0674781547905197</v>
+      </c>
+      <c r="G81">
+        <v>-0.04872443343837085</v>
+      </c>
+      <c r="H81">
+        <v>0.08269836537069747</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2472615609893102</v>
+        <v>0.09109752061315395</v>
       </c>
       <c r="C82">
-        <v>0.3026540414964508</v>
+        <v>-0.3210838119981069</v>
       </c>
       <c r="D82">
-        <v>-0.1981680533911898</v>
+        <v>-0.2400158538330502</v>
       </c>
       <c r="E82">
-        <v>0.1390392559258295</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.06244929007821786</v>
+      </c>
+      <c r="F82">
+        <v>-0.1035981815222108</v>
+      </c>
+      <c r="G82">
+        <v>-0.09107786408942765</v>
+      </c>
+      <c r="H82">
+        <v>0.1240464527031928</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.008098259341222635</v>
+        <v>-0.01303063155934379</v>
       </c>
       <c r="C83">
-        <v>0.05100315672426857</v>
+        <v>-0.02581483758791453</v>
       </c>
       <c r="D83">
-        <v>0.001066786065254635</v>
+        <v>0.02721131149224704</v>
       </c>
       <c r="E83">
-        <v>-0.0610260086374649</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.07856514782071618</v>
+      </c>
+      <c r="F83">
+        <v>0.07194778869607292</v>
+      </c>
+      <c r="G83">
+        <v>-0.03485003429681494</v>
+      </c>
+      <c r="H83">
+        <v>0.103106620435022</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001505249796560843</v>
+        <v>-0.000375507983289573</v>
       </c>
       <c r="C84">
-        <v>-0.0002096724385779057</v>
+        <v>-0.0195844752470194</v>
       </c>
       <c r="D84">
-        <v>0.009028199152370004</v>
+        <v>0.04821516961226521</v>
       </c>
       <c r="E84">
-        <v>0.002650426010524606</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.004403963817057297</v>
+      </c>
+      <c r="F84">
+        <v>0.02746078266048249</v>
+      </c>
+      <c r="G84">
+        <v>-0.04757849189744321</v>
+      </c>
+      <c r="H84">
+        <v>0.01838698434680035</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1381308786008831</v>
+        <v>0.05757776854824592</v>
       </c>
       <c r="C85">
-        <v>0.140451001549506</v>
+        <v>-0.1820143012980187</v>
       </c>
       <c r="D85">
-        <v>-0.03939753757876881</v>
+        <v>-0.09019002095822717</v>
       </c>
       <c r="E85">
-        <v>-0.02445646395949957</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.0008777874924814787</v>
+      </c>
+      <c r="F85">
+        <v>0.07527038143411198</v>
+      </c>
+      <c r="G85">
+        <v>-0.02113980574442402</v>
+      </c>
+      <c r="H85">
+        <v>-0.001102012698569948</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01466915081163787</v>
+        <v>0.01356930857832717</v>
       </c>
       <c r="C86">
-        <v>0.01377033541470933</v>
+        <v>-0.03304830862835597</v>
       </c>
       <c r="D86">
-        <v>0.08577119165950439</v>
+        <v>0.1023427922762842</v>
       </c>
       <c r="E86">
-        <v>-0.05313428213117804</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02189605429365397</v>
+      </c>
+      <c r="F86">
+        <v>-0.001265448961466245</v>
+      </c>
+      <c r="G86">
+        <v>0.01496581675357233</v>
+      </c>
+      <c r="H86">
+        <v>0.01649974872650518</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.01838554078744862</v>
+        <v>0.01271973157966143</v>
       </c>
       <c r="C87">
-        <v>0.02561565679952175</v>
+        <v>-0.05849108733702846</v>
       </c>
       <c r="D87">
-        <v>0.1345853297243394</v>
+        <v>0.1424419936177476</v>
       </c>
       <c r="E87">
-        <v>-0.05465067261353191</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01624537380864772</v>
+      </c>
+      <c r="F87">
+        <v>0.03956811199666495</v>
+      </c>
+      <c r="G87">
+        <v>-0.04927312208557754</v>
+      </c>
+      <c r="H87">
+        <v>0.04795000077514104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05238977443429195</v>
+        <v>0.03444726533969492</v>
       </c>
       <c r="C88">
-        <v>0.04529339884121362</v>
+        <v>-0.06796945788381414</v>
       </c>
       <c r="D88">
-        <v>0.02926479693535348</v>
+        <v>0.01324483901707332</v>
       </c>
       <c r="E88">
-        <v>-0.03014544545502056</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02749172234847514</v>
+      </c>
+      <c r="F88">
+        <v>0.01946586365931972</v>
+      </c>
+      <c r="G88">
+        <v>0.01314671516695245</v>
+      </c>
+      <c r="H88">
+        <v>0.01615531739291277</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.3270011001564739</v>
+        <v>0.4073608265026135</v>
       </c>
       <c r="C89">
-        <v>-0.3223594045721626</v>
+        <v>0.1546625244311346</v>
       </c>
       <c r="D89">
-        <v>0.01418891982237023</v>
+        <v>0.03143879971972099</v>
       </c>
       <c r="E89">
-        <v>-0.102509338753636</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.05142384427185454</v>
+      </c>
+      <c r="F89">
+        <v>0.06411303514326892</v>
+      </c>
+      <c r="G89">
+        <v>-0.007802818164474024</v>
+      </c>
+      <c r="H89">
+        <v>0.1137572597099665</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.2585200148317673</v>
+        <v>0.3188365909145594</v>
       </c>
       <c r="C90">
-        <v>-0.2344211233850461</v>
+        <v>0.1044276409751435</v>
       </c>
       <c r="D90">
-        <v>0.04362245880456372</v>
+        <v>0.0368695896831398</v>
       </c>
       <c r="E90">
-        <v>0.009914817669019353</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01042221062833618</v>
+      </c>
+      <c r="F90">
+        <v>-0.006624742466346437</v>
+      </c>
+      <c r="G90">
+        <v>-0.06783313625550176</v>
+      </c>
+      <c r="H90">
+        <v>-0.001726384482225973</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.151544516921952</v>
+        <v>0.06768220535277399</v>
       </c>
       <c r="C91">
-        <v>0.1881565361641222</v>
+        <v>-0.2072517575381023</v>
       </c>
       <c r="D91">
-        <v>-0.09003439293817524</v>
+        <v>-0.1066493142640001</v>
       </c>
       <c r="E91">
-        <v>-0.08954126670743279</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05862075002956185</v>
+      </c>
+      <c r="F91">
+        <v>0.07340898685505103</v>
+      </c>
+      <c r="G91">
+        <v>-0.004975756006411706</v>
+      </c>
+      <c r="H91">
+        <v>0.002037614814372288</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2453154555711745</v>
+        <v>0.3382615167344618</v>
       </c>
       <c r="C92">
-        <v>-0.2568223286070909</v>
+        <v>0.1419003562600964</v>
       </c>
       <c r="D92">
-        <v>-0.05231825899264168</v>
+        <v>0.00433548880952817</v>
       </c>
       <c r="E92">
-        <v>-0.04599955137121184</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06232002133294261</v>
+      </c>
+      <c r="F92">
+        <v>0.03047804494830521</v>
+      </c>
+      <c r="G92">
+        <v>-0.02788108915687903</v>
+      </c>
+      <c r="H92">
+        <v>0.01945915785914512</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.284055306813659</v>
+        <v>0.3352460376017512</v>
       </c>
       <c r="C93">
-        <v>-0.2462115154719858</v>
+        <v>0.1157182913133972</v>
       </c>
       <c r="D93">
-        <v>0.01523542351081414</v>
+        <v>-0.0174826442500448</v>
       </c>
       <c r="E93">
-        <v>0.0001148874885695193</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02560742781908809</v>
+      </c>
+      <c r="F93">
+        <v>0.009268220250455882</v>
+      </c>
+      <c r="G93">
+        <v>0.01403466203183438</v>
+      </c>
+      <c r="H93">
+        <v>-0.007695874078763999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2893135737858265</v>
+        <v>0.1268659293829873</v>
       </c>
       <c r="C94">
-        <v>0.2771920187160846</v>
+        <v>-0.3481261076380589</v>
       </c>
       <c r="D94">
-        <v>-0.3463077265990859</v>
+        <v>-0.3628234515922111</v>
       </c>
       <c r="E94">
-        <v>0.216222399111942</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.06344822257821432</v>
+      </c>
+      <c r="F94">
+        <v>-0.1045550355774766</v>
+      </c>
+      <c r="G94">
+        <v>-0.3186134330139205</v>
+      </c>
+      <c r="H94">
+        <v>-0.02432093858665469</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.01355002603957146</v>
+        <v>0.01849323959156567</v>
       </c>
       <c r="C95">
-        <v>0.03900187464124925</v>
+        <v>-0.06463803924443896</v>
       </c>
       <c r="D95">
-        <v>0.01772621870677628</v>
+        <v>0.1091097318746677</v>
       </c>
       <c r="E95">
-        <v>-0.09620429124564205</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1564157494568153</v>
+      </c>
+      <c r="F95">
+        <v>-0.01885677077864767</v>
+      </c>
+      <c r="G95">
+        <v>0.1015016088591525</v>
+      </c>
+      <c r="H95">
+        <v>0.3314791908637195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001367998507667462</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0006779797215308107</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0006069909523504059</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003812504849293693</v>
+      </c>
+      <c r="F97">
+        <v>0.0003968100814968264</v>
+      </c>
+      <c r="G97">
+        <v>-0.0005189031566606372</v>
+      </c>
+      <c r="H97">
+        <v>0.003751174088541989</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1433500270239952</v>
+        <v>0.1151894297653823</v>
       </c>
       <c r="C98">
-        <v>0.09164517389368883</v>
+        <v>-0.1547238908796341</v>
       </c>
       <c r="D98">
-        <v>0.1541638076642728</v>
+        <v>0.0597011823077914</v>
       </c>
       <c r="E98">
-        <v>0.1966160073725693</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1980582230298976</v>
+      </c>
+      <c r="F98">
+        <v>-0.2476476383944281</v>
+      </c>
+      <c r="G98">
+        <v>0.2768744919633125</v>
+      </c>
+      <c r="H98">
+        <v>-0.1889769193057166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001269624458629802</v>
+        <v>0.001524432337383314</v>
       </c>
       <c r="C101">
-        <v>0.02008581165662771</v>
+        <v>-0.03571103851324381</v>
       </c>
       <c r="D101">
-        <v>0.09655570653825449</v>
+        <v>0.1025905462901951</v>
       </c>
       <c r="E101">
-        <v>-0.01789697295407875</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.05919608968585117</v>
+      </c>
+      <c r="F101">
+        <v>0.03811838492641472</v>
+      </c>
+      <c r="G101">
+        <v>0.01189552606281844</v>
+      </c>
+      <c r="H101">
+        <v>0.1370744802112615</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.103187763951232</v>
+        <v>0.02850384144294514</v>
       </c>
       <c r="C102">
-        <v>0.1609880531163537</v>
+        <v>-0.1489885394651177</v>
       </c>
       <c r="D102">
-        <v>-0.06286381707542246</v>
+        <v>-0.09865540515056367</v>
       </c>
       <c r="E102">
-        <v>0.04983284329087918</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03836228125803127</v>
+      </c>
+      <c r="F102">
+        <v>-0.06159408298091855</v>
+      </c>
+      <c r="G102">
+        <v>0.006166234549237022</v>
+      </c>
+      <c r="H102">
+        <v>0.05076838732310619</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
